--- a/NewCo/BG RadarChart/df_ytd_bg_score.xlsx
+++ b/NewCo/BG RadarChart/df_ytd_bg_score.xlsx
@@ -505,22 +505,22 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>46451530111.97523</v>
+        <v>46451309435.78523</v>
       </c>
       <c r="F2" t="n">
         <v>47499403137.28195</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8886465329825394</v>
+        <v>0.8886426558392947</v>
       </c>
       <c r="H2" t="n">
         <v>0.91</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9765346516291641</v>
+        <v>0.976530391032192</v>
       </c>
       <c r="J2" t="n">
-        <v>3.765346516291641</v>
+        <v>3.765303910321919</v>
       </c>
     </row>
     <row r="3">
@@ -543,22 +543,22 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6541264371.732233</v>
+        <v>6541243196.292233</v>
       </c>
       <c r="F3" t="n">
         <v>6761730742.576076</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8614669624277106</v>
+        <v>0.8614644421064895</v>
       </c>
       <c r="H3" t="n">
         <v>0.89</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9679404072221467</v>
+        <v>0.96793757540055</v>
       </c>
       <c r="J3" t="n">
-        <v>3.679404072221467</v>
+        <v>3.6793757540055</v>
       </c>
     </row>
     <row r="4">
@@ -581,22 +581,22 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>8808979050.360006</v>
+        <v>8808832444.03767</v>
       </c>
       <c r="F4" t="n">
         <v>9054693717.837439</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8769639441605978</v>
+        <v>0.8769521023417748</v>
       </c>
       <c r="H4" t="n">
         <v>0.89</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9853527462478626</v>
+        <v>0.9853394408334548</v>
       </c>
       <c r="J4" t="n">
-        <v>3.853527462478626</v>
+        <v>3.853394408334548</v>
       </c>
     </row>
     <row r="5">
@@ -619,22 +619,22 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>7626389167.196779</v>
+        <v>7626373580.459023</v>
       </c>
       <c r="F5" t="n">
         <v>7829783506.475336</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8642874585095611</v>
+        <v>0.8642858167250131</v>
       </c>
       <c r="H5" t="n">
         <v>0.89</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9711095039433271</v>
+        <v>0.9711076592415878</v>
       </c>
       <c r="J5" t="n">
-        <v>3.711095039433271</v>
+        <v>3.711076592415878</v>
       </c>
     </row>
     <row r="6">
@@ -657,22 +657,22 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5033777488.378176</v>
+        <v>5033771037.738176</v>
       </c>
       <c r="F6" t="n">
         <v>4979602955.114067</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8935693420778894</v>
+        <v>0.8935681630798938</v>
       </c>
       <c r="H6" t="n">
         <v>0.89</v>
       </c>
       <c r="I6" t="n">
-        <v>1.00401049671673</v>
+        <v>1.004009171999881</v>
       </c>
       <c r="J6" t="n">
-        <v>4.020052483583648</v>
+        <v>4.020045859999404</v>
       </c>
     </row>
     <row r="7">
@@ -695,22 +695,22 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4191124568.388678</v>
+        <v>4191114232.378677</v>
       </c>
       <c r="F7" t="n">
         <v>4329366113.200416</v>
       </c>
       <c r="G7" t="n">
-        <v>0.8589038370094527</v>
+        <v>0.8589017714727967</v>
       </c>
       <c r="H7" t="n">
         <v>0.89</v>
       </c>
       <c r="I7" t="n">
-        <v>0.965060491021857</v>
+        <v>0.9650581701941535</v>
       </c>
       <c r="J7" t="n">
-        <v>3.65060491021857</v>
+        <v>3.650581701941535</v>
       </c>
     </row>
     <row r="8">
@@ -733,22 +733,22 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3752388884.174932</v>
+        <v>3752385428.904932</v>
       </c>
       <c r="F8" t="n">
         <v>3754378790.650315</v>
       </c>
       <c r="G8" t="n">
-        <v>0.8869759132143546</v>
+        <v>0.8869750928297414</v>
       </c>
       <c r="H8" t="n">
         <v>0.89</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9966021496790501</v>
+        <v>0.9966012278985859</v>
       </c>
       <c r="J8" t="n">
-        <v>3.966021496790502</v>
+        <v>3.966012278985859</v>
       </c>
     </row>
     <row r="9">
@@ -771,22 +771,22 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5595648636.619634</v>
+        <v>5595635951.339633</v>
       </c>
       <c r="F9" t="n">
         <v>5780010050.955849</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8583450434348198</v>
+        <v>0.8583432074476487</v>
       </c>
       <c r="H9" t="n">
         <v>0.89</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9644326330728312</v>
+        <v>0.9644305701658974</v>
       </c>
       <c r="J9" t="n">
-        <v>3.644326330728312</v>
+        <v>3.644305701658974</v>
       </c>
     </row>
     <row r="10">
@@ -809,22 +809,22 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4463350229.43709</v>
+        <v>4463346857.997089</v>
       </c>
       <c r="F10" t="n">
         <v>4494649197.976722</v>
       </c>
       <c r="G10" t="n">
-        <v>0.8793598542845954</v>
+        <v>0.8793591782644902</v>
       </c>
       <c r="H10" t="n">
         <v>0.89</v>
       </c>
       <c r="I10" t="n">
-        <v>0.988044780095051</v>
+        <v>0.9880440205218991</v>
       </c>
       <c r="J10" t="n">
-        <v>3.880447800950511</v>
+        <v>3.880440205218991</v>
       </c>
     </row>
     <row r="11">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>210592242.8526508</v>
+        <v>210591582.9626508</v>
       </c>
       <c r="F11" t="n">
         <v>301818585.8755181</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6326341550147125</v>
+        <v>0.6326326246257002</v>
       </c>
       <c r="H11" t="n">
         <v>0.89</v>
       </c>
       <c r="I11" t="n">
-        <v>0.7108248932749579</v>
+        <v>0.7108231737367419</v>
       </c>
       <c r="J11" t="n">
-        <v>1.108248932749579</v>
+        <v>1.108231737367419</v>
       </c>
     </row>
     <row r="12">
@@ -885,22 +885,22 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>505766638.0877991</v>
+        <v>505765254.3977991</v>
       </c>
       <c r="F12" t="n">
         <v>520623213.1122642</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8682347418499322</v>
+        <v>0.8682325723785435</v>
       </c>
       <c r="H12" t="n">
         <v>0.89</v>
       </c>
       <c r="I12" t="n">
-        <v>0.9755446537639688</v>
+        <v>0.9755422161556668</v>
       </c>
       <c r="J12" t="n">
-        <v>3.755446537639688</v>
+        <v>3.755422161556668</v>
       </c>
     </row>
     <row r="13">
@@ -923,22 +923,22 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>515828087.0619991</v>
+        <v>515828027.5619991</v>
       </c>
       <c r="F13" t="n">
         <v>606330249.4844196</v>
       </c>
       <c r="G13" t="n">
-        <v>0.7780696210228973</v>
+        <v>0.7780695610409827</v>
       </c>
       <c r="H13" t="n">
         <v>0.89</v>
       </c>
       <c r="I13" t="n">
-        <v>0.8742355292392104</v>
+        <v>0.8742354618438007</v>
       </c>
       <c r="J13" t="n">
-        <v>2.742355292392104</v>
+        <v>2.742354618438007</v>
       </c>
     </row>
     <row r="14">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>546057445.1870686</v>
+        <v>546054313.8370686</v>
       </c>
       <c r="F14" t="n">
         <v>551936761.3497715</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8746488938201125</v>
+        <v>0.8746446022110348</v>
       </c>
       <c r="H14" t="n">
         <v>0.89</v>
       </c>
       <c r="I14" t="n">
-        <v>0.982751566090014</v>
+        <v>0.9827467440573424</v>
       </c>
       <c r="J14" t="n">
-        <v>3.82751566090014</v>
+        <v>3.827467440573424</v>
       </c>
     </row>
     <row r="15">
@@ -999,22 +999,22 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>524135152.0623802</v>
+        <v>524132039.4523802</v>
       </c>
       <c r="F15" t="n">
         <v>527614102.3517355</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9003453243821373</v>
+        <v>0.9003408000017395</v>
       </c>
       <c r="H15" t="n">
         <v>0.89</v>
       </c>
       <c r="I15" t="n">
-        <v>1.011623959979929</v>
+        <v>1.011618876406449</v>
       </c>
       <c r="J15" t="n">
-        <v>4.058119799899647</v>
+        <v>4.058094382032245</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>691738715.5734514</v>
+        <v>691737594.6834514</v>
       </c>
       <c r="F16" t="n">
         <v>465257741.8471274</v>
@@ -1075,19 +1075,19 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>110465456.767795</v>
+        <v>110466017.5154585</v>
       </c>
       <c r="F17" t="n">
         <v>240800294.3434422</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4406476540882599</v>
+        <v>0.4406506711927475</v>
       </c>
       <c r="H17" t="n">
         <v>0.89</v>
       </c>
       <c r="I17" t="n">
-        <v>0.495109723694674</v>
+        <v>0.4951131136997163</v>
       </c>
       <c r="J17" t="n">
         <v>1</v>
@@ -1113,22 +1113,22 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>566983410.7928196</v>
+        <v>566982637.0328196</v>
       </c>
       <c r="F18" t="n">
         <v>581565409.8088931</v>
       </c>
       <c r="G18" t="n">
-        <v>0.908275736202744</v>
+        <v>0.9082747908098168</v>
       </c>
       <c r="H18" t="n">
         <v>0.89</v>
       </c>
       <c r="I18" t="n">
-        <v>1.020534535059263</v>
+        <v>1.020533472820019</v>
       </c>
       <c r="J18" t="n">
-        <v>4.102672675296315</v>
+        <v>4.102667364100094</v>
       </c>
     </row>
     <row r="19">
@@ -1151,22 +1151,22 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>342317718.5441746</v>
+        <v>342316900.8841746</v>
       </c>
       <c r="F19" t="n">
         <v>382098588.2341244</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8032781399034222</v>
+        <v>0.803276506996895</v>
       </c>
       <c r="H19" t="n">
         <v>0.89</v>
       </c>
       <c r="I19" t="n">
-        <v>0.9025597077566542</v>
+        <v>0.9025578730302191</v>
       </c>
       <c r="J19" t="n">
-        <v>3.025597077566542</v>
+        <v>3.025578730302191</v>
       </c>
     </row>
     <row r="20">
@@ -1189,22 +1189,22 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>321090278.0891372</v>
+        <v>321088436.9191372</v>
       </c>
       <c r="F20" t="n">
         <v>389883019.8902869</v>
       </c>
       <c r="G20" t="n">
-        <v>0.7359681985003815</v>
+        <v>0.735964784996439</v>
       </c>
       <c r="H20" t="n">
         <v>0.89</v>
       </c>
       <c r="I20" t="n">
-        <v>0.8269305601127882</v>
+        <v>0.8269267247151</v>
       </c>
       <c r="J20" t="n">
-        <v>2.269305601127882</v>
+        <v>2.269267247150999</v>
       </c>
     </row>
     <row r="21">
@@ -1227,22 +1227,22 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>277348218.7162479</v>
+        <v>277346256.1362479</v>
       </c>
       <c r="F21" t="n">
         <v>354571061.0082056</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6898528856632633</v>
+        <v>0.6898487368337709</v>
       </c>
       <c r="H21" t="n">
         <v>0.89</v>
       </c>
       <c r="I21" t="n">
-        <v>0.7751156018688352</v>
+        <v>0.7751109402626639</v>
       </c>
       <c r="J21" t="n">
-        <v>1.751156018688352</v>
+        <v>1.751109402626639</v>
       </c>
     </row>
     <row r="22">
@@ -1265,22 +1265,22 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>442068940.9609349</v>
+        <v>442067205.1109349</v>
       </c>
       <c r="F22" t="n">
         <v>458219728.8996428</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8418008639870471</v>
+        <v>0.8417979447636095</v>
       </c>
       <c r="H22" t="n">
         <v>0.89</v>
       </c>
       <c r="I22" t="n">
-        <v>0.9458436674011765</v>
+        <v>0.9458403873748421</v>
       </c>
       <c r="J22" t="n">
-        <v>3.458436674011765</v>
+        <v>3.458403873748421</v>
       </c>
     </row>
     <row r="23">
@@ -1303,22 +1303,22 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>477760567.8795645</v>
+        <v>477759736.8895645</v>
       </c>
       <c r="F23" t="n">
         <v>482370549.6987525</v>
       </c>
       <c r="G23" t="n">
-        <v>0.8910767583825026</v>
+        <v>0.8910753881654037</v>
       </c>
       <c r="H23" t="n">
         <v>0.89</v>
       </c>
       <c r="I23" t="n">
-        <v>1.001209840879216</v>
+        <v>1.001208301309442</v>
       </c>
       <c r="J23" t="n">
-        <v>4.006049204396081</v>
+        <v>4.006041506547212</v>
       </c>
     </row>
     <row r="24">
@@ -1341,22 +1341,22 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>487396182.1358306</v>
+        <v>487394028.5058306</v>
       </c>
       <c r="F24" t="n">
         <v>494575459.8111235</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8824194966100481</v>
+        <v>0.8824160587764517</v>
       </c>
       <c r="H24" t="n">
         <v>0.89</v>
       </c>
       <c r="I24" t="n">
-        <v>0.9914825804607282</v>
+        <v>0.9914787177263502</v>
       </c>
       <c r="J24" t="n">
-        <v>3.914825804607283</v>
+        <v>3.914787177263502</v>
       </c>
     </row>
     <row r="25">
@@ -1379,22 +1379,22 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>292440728.5410397</v>
+        <v>292440017.4410397</v>
       </c>
       <c r="F25" t="n">
         <v>368031557.5687232</v>
       </c>
       <c r="G25" t="n">
-        <v>0.7083389313771914</v>
+        <v>0.7083374518588437</v>
       </c>
       <c r="H25" t="n">
         <v>0.89</v>
       </c>
       <c r="I25" t="n">
-        <v>0.7958864397496532</v>
+        <v>0.7958847773694873</v>
       </c>
       <c r="J25" t="n">
-        <v>1.958864397496532</v>
+        <v>1.958847773694872</v>
       </c>
     </row>
     <row r="26">
@@ -1417,22 +1417,22 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>843949743.6215339</v>
+        <v>843837253.8615339</v>
       </c>
       <c r="F26" t="n">
         <v>783575908.9107467</v>
       </c>
       <c r="G26" t="n">
-        <v>0.9712125230488143</v>
+        <v>0.9711154125452658</v>
       </c>
       <c r="H26" t="n">
         <v>0.89</v>
       </c>
       <c r="I26" t="n">
-        <v>1.091250025897544</v>
+        <v>1.091140912972209</v>
       </c>
       <c r="J26" t="n">
-        <v>4.456250129487721</v>
+        <v>4.455704564861044</v>
       </c>
     </row>
     <row r="27">
@@ -1455,22 +1455,22 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>696268709.1966912</v>
+        <v>696263504.9866911</v>
       </c>
       <c r="F27" t="n">
         <v>670712929.5783963</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9145052815615459</v>
+        <v>0.9144996901334498</v>
       </c>
       <c r="H27" t="n">
         <v>0.89</v>
       </c>
       <c r="I27" t="n">
-        <v>1.027534024226456</v>
+        <v>1.027527741722977</v>
       </c>
       <c r="J27" t="n">
-        <v>4.137670121132281</v>
+        <v>4.137638708614887</v>
       </c>
     </row>
     <row r="28">
@@ -1493,22 +1493,22 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>358604517.9365087</v>
+        <v>358602384.0065087</v>
       </c>
       <c r="F28" t="n">
         <v>404549126.8486727</v>
       </c>
       <c r="G28" t="n">
-        <v>0.7921667275385342</v>
+        <v>0.7921627299456705</v>
       </c>
       <c r="H28" t="n">
         <v>0.89</v>
       </c>
       <c r="I28" t="n">
-        <v>0.8900749747623981</v>
+        <v>0.890070483085023</v>
       </c>
       <c r="J28" t="n">
-        <v>2.90074974762398</v>
+        <v>2.90070483085023</v>
       </c>
     </row>
     <row r="29">
@@ -1531,22 +1531,22 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>504780028.647065</v>
+        <v>504775273.9170651</v>
       </c>
       <c r="F29" t="n">
         <v>520518946.6701992</v>
       </c>
       <c r="G29" t="n">
-        <v>0.8717348204355652</v>
+        <v>0.8717279416847253</v>
       </c>
       <c r="H29" t="n">
         <v>0.89</v>
       </c>
       <c r="I29" t="n">
-        <v>0.9794773263320957</v>
+        <v>0.9794695973985678</v>
       </c>
       <c r="J29" t="n">
-        <v>3.794773263320957</v>
+        <v>3.794695973985678</v>
       </c>
     </row>
     <row r="30">
@@ -1569,22 +1569,22 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>559104583.7005759</v>
+        <v>559103721.2205759</v>
       </c>
       <c r="F30" t="n">
         <v>531437878.3285784</v>
       </c>
       <c r="G30" t="n">
-        <v>0.9235412721647497</v>
+        <v>0.9235400089180725</v>
       </c>
       <c r="H30" t="n">
         <v>0.89</v>
       </c>
       <c r="I30" t="n">
-        <v>1.037686822657022</v>
+        <v>1.037685403278733</v>
       </c>
       <c r="J30" t="n">
-        <v>4.188434113285111</v>
+        <v>4.188427016393667</v>
       </c>
     </row>
     <row r="31">
@@ -1607,22 +1607,22 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>487544259.4238869</v>
+        <v>487542082.4938869</v>
       </c>
       <c r="F31" t="n">
         <v>510392951.7350317</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8518462252313974</v>
+        <v>0.8518430361503625</v>
       </c>
       <c r="H31" t="n">
         <v>0.89</v>
       </c>
       <c r="I31" t="n">
-        <v>0.9571305901476376</v>
+        <v>0.9571270069105197</v>
       </c>
       <c r="J31" t="n">
-        <v>3.571305901476375</v>
+        <v>3.571270069105196</v>
       </c>
     </row>
     <row r="32">
@@ -1645,22 +1645,22 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>382239544.9482165</v>
+        <v>382236284.8882165</v>
       </c>
       <c r="F32" t="n">
         <v>440258191.3289951</v>
       </c>
       <c r="G32" t="n">
-        <v>0.7923677995125445</v>
+        <v>0.7923617882359023</v>
       </c>
       <c r="H32" t="n">
         <v>0.89</v>
       </c>
       <c r="I32" t="n">
-        <v>0.8903008983287017</v>
+        <v>0.8902941440852835</v>
       </c>
       <c r="J32" t="n">
-        <v>2.903008983287017</v>
+        <v>2.902941440852835</v>
       </c>
     </row>
     <row r="33">
@@ -1683,22 +1683,22 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>637020159.1266434</v>
+        <v>637016774.6766435</v>
       </c>
       <c r="F33" t="n">
         <v>625319818.1445358</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9120311892372653</v>
+        <v>0.912026940263251</v>
       </c>
       <c r="H33" t="n">
         <v>0.89</v>
       </c>
       <c r="I33" t="n">
-        <v>1.024754145210411</v>
+        <v>1.024749371082305</v>
       </c>
       <c r="J33" t="n">
-        <v>4.123770726052053</v>
+        <v>4.123746855411523</v>
       </c>
     </row>
     <row r="34">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>712078697.9448427</v>
+        <v>712077851.1048427</v>
       </c>
       <c r="F34" t="n">
         <v>600778183.7509896</v>
@@ -1759,22 +1759,22 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>814765654.5933729</v>
+        <v>814763639.393373</v>
       </c>
       <c r="F35" t="n">
         <v>790086974.3704041</v>
       </c>
       <c r="G35" t="n">
-        <v>0.9164590886045902</v>
+        <v>0.9164569529576131</v>
       </c>
       <c r="H35" t="n">
         <v>0.89</v>
       </c>
       <c r="I35" t="n">
-        <v>1.029729313038865</v>
+        <v>1.02972691343552</v>
       </c>
       <c r="J35" t="n">
-        <v>4.148646565194327</v>
+        <v>4.148634567177601</v>
       </c>
     </row>
     <row r="36">
@@ -1797,22 +1797,22 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>380687977.8554571</v>
+        <v>380686795.4054571</v>
       </c>
       <c r="F36" t="n">
         <v>505296223.1664645</v>
       </c>
       <c r="G36" t="n">
-        <v>0.6792666043594165</v>
+        <v>0.6792647536210061</v>
       </c>
       <c r="H36" t="n">
         <v>0.89</v>
       </c>
       <c r="I36" t="n">
-        <v>0.7632209037746254</v>
+        <v>0.7632188242932653</v>
       </c>
       <c r="J36" t="n">
-        <v>1.632209037746254</v>
+        <v>1.632188242932652</v>
       </c>
     </row>
     <row r="37">
@@ -1835,22 +1835,22 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>765553723.2763299</v>
+        <v>765552330.7163298</v>
       </c>
       <c r="F37" t="n">
         <v>670137199.8492692</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9310192721605094</v>
+        <v>0.9310175228605228</v>
       </c>
       <c r="H37" t="n">
         <v>0.89</v>
       </c>
       <c r="I37" t="n">
-        <v>1.046089069843269</v>
+        <v>1.046087104337666</v>
       </c>
       <c r="J37" t="n">
-        <v>4.230445349216345</v>
+        <v>4.230435521688331</v>
       </c>
     </row>
     <row r="38">
@@ -1873,22 +1873,22 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>420795942.4081236</v>
+        <v>420795259.3381236</v>
       </c>
       <c r="F38" t="n">
         <v>545378086.1873506</v>
       </c>
       <c r="G38" t="n">
-        <v>0.689981523071413</v>
+        <v>0.6899805087838549</v>
       </c>
       <c r="H38" t="n">
         <v>0.89</v>
       </c>
       <c r="I38" t="n">
-        <v>0.7752601382824865</v>
+        <v>0.7752589986335447</v>
       </c>
       <c r="J38" t="n">
-        <v>1.752601382824865</v>
+        <v>1.752589986335447</v>
       </c>
     </row>
     <row r="39">
@@ -1911,7 +1911,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>655639781.2657456</v>
+        <v>655637851.8957456</v>
       </c>
       <c r="F39" t="n">
         <v>560363256.8524503</v>
@@ -1949,22 +1949,22 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>289597627.9595203</v>
+        <v>289595626.3595203</v>
       </c>
       <c r="F40" t="n">
         <v>378128034.9565637</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6948239228930606</v>
+        <v>0.6948196620917209</v>
       </c>
       <c r="H40" t="n">
         <v>0.89</v>
       </c>
       <c r="I40" t="n">
-        <v>0.780701036958495</v>
+        <v>0.7806962495412594</v>
       </c>
       <c r="J40" t="n">
-        <v>1.80701036958495</v>
+        <v>1.806962495412594</v>
       </c>
     </row>
     <row r="41">
@@ -1987,19 +1987,19 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>202961681.1989571</v>
+        <v>202959420.298957</v>
       </c>
       <c r="F41" t="n">
         <v>453567377.8481638</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4533368493767843</v>
+        <v>0.4533329646400807</v>
       </c>
       <c r="H41" t="n">
         <v>0.89</v>
       </c>
       <c r="I41" t="n">
-        <v>0.5093672464907689</v>
+        <v>0.5093628816180682</v>
       </c>
       <c r="J41" t="n">
         <v>1</v>
@@ -2025,22 +2025,22 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>417099949.6588218</v>
+        <v>417099939.1588218</v>
       </c>
       <c r="F42" t="n">
         <v>442240977.4410644</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8373273250121607</v>
+        <v>0.8373273053583121</v>
       </c>
       <c r="H42" t="n">
         <v>0.89</v>
       </c>
       <c r="I42" t="n">
-        <v>0.9408172191147872</v>
+        <v>0.9408171970318113</v>
       </c>
       <c r="J42" t="n">
-        <v>3.408172191147872</v>
+        <v>3.408171970318113</v>
       </c>
     </row>
     <row r="43">
@@ -2063,22 +2063,22 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>577734956.6735895</v>
+        <v>577734329.9135895</v>
       </c>
       <c r="F43" t="n">
         <v>588349281.0950589</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8568009453851196</v>
+        <v>0.8568001018015198</v>
       </c>
       <c r="H43" t="n">
         <v>0.89</v>
       </c>
       <c r="I43" t="n">
-        <v>0.9626976914439547</v>
+        <v>0.9626967435972132</v>
       </c>
       <c r="J43" t="n">
-        <v>3.626976914439547</v>
+        <v>3.626967435972132</v>
       </c>
     </row>
     <row r="44">
@@ -2101,22 +2101,22 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>463834863.9849733</v>
+        <v>463832546.9349732</v>
       </c>
       <c r="F44" t="n">
         <v>476429183.2123801</v>
       </c>
       <c r="G44" t="n">
-        <v>0.856769525554319</v>
+        <v>0.8567655621803346</v>
       </c>
       <c r="H44" t="n">
         <v>0.89</v>
       </c>
       <c r="I44" t="n">
-        <v>0.9626623882632797</v>
+        <v>0.9626579350340838</v>
       </c>
       <c r="J44" t="n">
-        <v>3.626623882632797</v>
+        <v>3.626579350340838</v>
       </c>
     </row>
     <row r="45">
@@ -2139,22 +2139,22 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>449803884.9549651</v>
+        <v>449801567.4549651</v>
       </c>
       <c r="F45" t="n">
         <v>498715957.7027736</v>
       </c>
       <c r="G45" t="n">
-        <v>0.7864352840528576</v>
+        <v>0.7864316017042231</v>
       </c>
       <c r="H45" t="n">
         <v>0.89</v>
       </c>
       <c r="I45" t="n">
-        <v>0.8836351506211882</v>
+        <v>0.8836310131508125</v>
       </c>
       <c r="J45" t="n">
-        <v>2.836351506211882</v>
+        <v>2.836310131508124</v>
       </c>
     </row>
     <row r="46">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>489910462.0508708</v>
+        <v>489909129.9008708</v>
       </c>
       <c r="F46" t="n">
         <v>516384583.527167</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8406934733584343</v>
+        <v>0.840691341271254</v>
       </c>
       <c r="H46" t="n">
         <v>0.89</v>
       </c>
       <c r="I46" t="n">
-        <v>0.9445994082679037</v>
+        <v>0.9445970126643303</v>
       </c>
       <c r="J46" t="n">
-        <v>3.445994082679037</v>
+        <v>3.445970126643302</v>
       </c>
     </row>
     <row r="47">
@@ -2215,7 +2215,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>1038791264.367947</v>
+        <v>1038788941.717947</v>
       </c>
       <c r="F47" t="n">
         <v>853947779.8133283</v>
@@ -2253,7 +2253,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>1452336341.740893</v>
+        <v>1452333568.293136</v>
       </c>
       <c r="F48" t="n">
         <v>1104456367.649994</v>
@@ -2291,7 +2291,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>965121695.4160116</v>
+        <v>965120134.5260116</v>
       </c>
       <c r="F49" t="n">
         <v>749134623.5907509</v>
@@ -2329,19 +2329,19 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>435010006.1827242</v>
+        <v>435008517.7627242</v>
       </c>
       <c r="F50" t="n">
         <v>796864888.8585787</v>
       </c>
       <c r="G50" t="n">
-        <v>0.530881566426141</v>
+        <v>0.530880129941584</v>
       </c>
       <c r="H50" t="n">
         <v>0.89</v>
       </c>
       <c r="I50" t="n">
-        <v>0.5964961420518439</v>
+        <v>0.5964945280242516</v>
       </c>
       <c r="J50" t="n">
         <v>1</v>
@@ -2367,22 +2367,22 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>662535893.8818444</v>
+        <v>662535152.8318444</v>
       </c>
       <c r="F51" t="n">
         <v>611285120.2921002</v>
       </c>
       <c r="G51" t="n">
-        <v>0.9530982226883139</v>
+        <v>0.9530972374660961</v>
       </c>
       <c r="H51" t="n">
         <v>0.89</v>
       </c>
       <c r="I51" t="n">
-        <v>1.070896879425072</v>
+        <v>1.070895772433816</v>
       </c>
       <c r="J51" t="n">
-        <v>4.354484397125359</v>
+        <v>4.354478862169079</v>
       </c>
     </row>
     <row r="52">
@@ -2405,19 +2405,19 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>443741126.8382363</v>
+        <v>443739939.2382363</v>
       </c>
       <c r="F52" t="n">
         <v>794700733.3718818</v>
       </c>
       <c r="G52" t="n">
-        <v>0.5365806760791145</v>
+        <v>0.5365795320748373</v>
       </c>
       <c r="H52" t="n">
         <v>0.89</v>
       </c>
       <c r="I52" t="n">
-        <v>0.6028996360439489</v>
+        <v>0.6028983506458846</v>
       </c>
       <c r="J52" t="n">
         <v>1</v>
@@ -2443,19 +2443,19 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>246742106.1144216</v>
+        <v>246741866.7144217</v>
       </c>
       <c r="F53" t="n">
         <v>408495509.3243135</v>
       </c>
       <c r="G53" t="n">
-        <v>0.5736233126740184</v>
+        <v>0.5736228519019706</v>
       </c>
       <c r="H53" t="n">
         <v>0.89</v>
       </c>
       <c r="I53" t="n">
-        <v>0.644520576038223</v>
+        <v>0.6445200583168209</v>
       </c>
       <c r="J53" t="n">
         <v>1</v>
@@ -2481,22 +2481,22 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>497650500.247442</v>
+        <v>497646475.597442</v>
       </c>
       <c r="F54" t="n">
         <v>505013401.7041719</v>
       </c>
       <c r="G54" t="n">
-        <v>0.8765482741816503</v>
+        <v>0.8765415743662796</v>
       </c>
       <c r="H54" t="n">
         <v>0.89</v>
       </c>
       <c r="I54" t="n">
-        <v>0.9848857013276969</v>
+        <v>0.9848781734452579</v>
       </c>
       <c r="J54" t="n">
-        <v>3.848857013276969</v>
+        <v>3.848781734452579</v>
       </c>
     </row>
     <row r="55">
@@ -2519,22 +2519,22 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>547024217.8652484</v>
+        <v>547023473.2352484</v>
       </c>
       <c r="F55" t="n">
         <v>521295823.9642177</v>
       </c>
       <c r="G55" t="n">
-        <v>0.9357388760691174</v>
+        <v>0.9357376453125937</v>
       </c>
       <c r="H55" t="n">
         <v>0.89</v>
       </c>
       <c r="I55" t="n">
-        <v>1.051391995583278</v>
+        <v>1.051390612710779</v>
       </c>
       <c r="J55" t="n">
-        <v>4.25695997791639</v>
+        <v>4.256953063553897</v>
       </c>
     </row>
     <row r="56">
@@ -2557,22 +2557,22 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>380920046.38496</v>
+        <v>380919973.94496</v>
       </c>
       <c r="F56" t="n">
         <v>416423363.0994245</v>
       </c>
       <c r="G56" t="n">
-        <v>0.825777494558981</v>
+        <v>0.8257773543874355</v>
       </c>
       <c r="H56" t="n">
         <v>0.89</v>
       </c>
       <c r="I56" t="n">
-        <v>0.9278398815269449</v>
+        <v>0.9278397240308264</v>
       </c>
       <c r="J56" t="n">
-        <v>3.278398815269449</v>
+        <v>3.278397240308264</v>
       </c>
     </row>
     <row r="57">
@@ -2595,22 +2595,22 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>453088982.5944933</v>
+        <v>453087483.3244933</v>
       </c>
       <c r="F57" t="n">
         <v>480572607.5367444</v>
       </c>
       <c r="G57" t="n">
-        <v>0.8399426954045733</v>
+        <v>0.8399401102991875</v>
       </c>
       <c r="H57" t="n">
         <v>0.89</v>
       </c>
       <c r="I57" t="n">
-        <v>0.9437558375332284</v>
+        <v>0.9437529329204354</v>
       </c>
       <c r="J57" t="n">
-        <v>3.437558375332284</v>
+        <v>3.437529329204354</v>
       </c>
     </row>
     <row r="58">
@@ -2633,7 +2633,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>791695328.0797746</v>
+        <v>791693398.1897746</v>
       </c>
       <c r="F58" t="n">
         <v>694995450.2862025</v>
@@ -2671,22 +2671,22 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>397859982.5851411</v>
+        <v>397860210.9151411</v>
       </c>
       <c r="F59" t="n">
         <v>419015804.4676862</v>
       </c>
       <c r="G59" t="n">
-        <v>0.8486904364957477</v>
+        <v>0.8486908695926576</v>
       </c>
       <c r="H59" t="n">
         <v>0.89</v>
       </c>
       <c r="I59" t="n">
-        <v>0.9535847601075816</v>
+        <v>0.9535852467333231</v>
       </c>
       <c r="J59" t="n">
-        <v>3.535847601075816</v>
+        <v>3.535852467333231</v>
       </c>
     </row>
     <row r="60">
@@ -2709,22 +2709,22 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>539522805.0814379</v>
+        <v>539520892.761438</v>
       </c>
       <c r="F60" t="n">
         <v>528291904.3500836</v>
       </c>
       <c r="G60" t="n">
-        <v>0.9057170516616921</v>
+        <v>0.9057138691840068</v>
       </c>
       <c r="H60" t="n">
         <v>0.89</v>
       </c>
       <c r="I60" t="n">
-        <v>1.017659608608643</v>
+        <v>1.017656032791019</v>
       </c>
       <c r="J60" t="n">
-        <v>4.088298043043214</v>
+        <v>4.088280163955095</v>
       </c>
     </row>
     <row r="61">
@@ -2747,22 +2747,22 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>403186685.2966049</v>
+        <v>403186404.5066049</v>
       </c>
       <c r="F61" t="n">
         <v>410614162.4829316</v>
       </c>
       <c r="G61" t="n">
-        <v>0.8711400981807597</v>
+        <v>0.8711395206859629</v>
       </c>
       <c r="H61" t="n">
         <v>0.89</v>
       </c>
       <c r="I61" t="n">
-        <v>0.9788090990795052</v>
+        <v>0.978808450208947</v>
       </c>
       <c r="J61" t="n">
-        <v>3.788090990795052</v>
+        <v>3.78808450208947</v>
       </c>
     </row>
     <row r="62">
@@ -2785,22 +2785,22 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>437917737.1381357</v>
+        <v>437918036.1381357</v>
       </c>
       <c r="F62" t="n">
         <v>406938575.3343076</v>
       </c>
       <c r="G62" t="n">
-        <v>0.94528545669529</v>
+        <v>0.9452860962079779</v>
       </c>
       <c r="H62" t="n">
         <v>0.89</v>
       </c>
       <c r="I62" t="n">
-        <v>1.062118490668865</v>
+        <v>1.062119209222447</v>
       </c>
       <c r="J62" t="n">
-        <v>4.310592453344326</v>
+        <v>4.310596046112235</v>
       </c>
     </row>
     <row r="63">
@@ -2823,7 +2823,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>821989257.1606504</v>
+        <v>821988668.7706504</v>
       </c>
       <c r="F63" t="n">
         <v>548137526.5797532</v>
@@ -2861,22 +2861,22 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>186191455.2094986</v>
+        <v>186191308.3594986</v>
       </c>
       <c r="F64" t="n">
         <v>254584735.3284465</v>
       </c>
       <c r="G64" t="n">
-        <v>0.6673881189486809</v>
+        <v>0.6673876430053743</v>
       </c>
       <c r="H64" t="n">
         <v>0.89</v>
       </c>
       <c r="I64" t="n">
-        <v>0.7498742909535741</v>
+        <v>0.7498737561858139</v>
       </c>
       <c r="J64" t="n">
-        <v>1.498742909535741</v>
+        <v>1.498737561858139</v>
       </c>
     </row>
     <row r="65">
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>365815107.8386607</v>
+        <v>365815107.8386606</v>
       </c>
       <c r="F65" t="n">
         <v>398795374.0473731</v>
@@ -2975,19 +2975,19 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>120782550.6633642</v>
+        <v>120782271.3633642</v>
       </c>
       <c r="F67" t="n">
         <v>220521493.6267821</v>
       </c>
       <c r="G67" t="n">
-        <v>0.5179185175377521</v>
+        <v>0.5179174848645813</v>
       </c>
       <c r="H67" t="n">
         <v>0.89</v>
       </c>
       <c r="I67" t="n">
-        <v>0.581930918581744</v>
+        <v>0.5819297582748105</v>
       </c>
       <c r="J67" t="n">
         <v>1</v>
@@ -3013,19 +3013,19 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>121296823.8259844</v>
+        <v>121295684.7759844</v>
       </c>
       <c r="F68" t="n">
         <v>210205503.0197864</v>
       </c>
       <c r="G68" t="n">
-        <v>0.5465595979109498</v>
+        <v>0.5465553117417509</v>
       </c>
       <c r="H68" t="n">
         <v>0.89</v>
       </c>
       <c r="I68" t="n">
-        <v>0.614111907765112</v>
+        <v>0.6141070918446639</v>
       </c>
       <c r="J68" t="n">
         <v>1</v>
@@ -3051,7 +3051,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>935269628.1827184</v>
+        <v>935265304.0227184</v>
       </c>
       <c r="F69" t="n">
         <v>678567219.099642</v>
@@ -3089,22 +3089,22 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>546177247.5355021</v>
+        <v>546174844.895502</v>
       </c>
       <c r="F70" t="n">
         <v>514384057.0489637</v>
       </c>
       <c r="G70" t="n">
-        <v>0.9428358303466707</v>
+        <v>0.9428316745169928</v>
       </c>
       <c r="H70" t="n">
         <v>0.89</v>
       </c>
       <c r="I70" t="n">
-        <v>1.059366101513113</v>
+        <v>1.059361432041565</v>
       </c>
       <c r="J70" t="n">
-        <v>4.296830507565566</v>
+        <v>4.296807160207825</v>
       </c>
     </row>
     <row r="71">
@@ -3203,22 +3203,22 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>369156057.2329524</v>
+        <v>369155958.2329524</v>
       </c>
       <c r="F73" t="n">
         <v>372944509.1522411</v>
       </c>
       <c r="G73" t="n">
-        <v>0.8793812074128412</v>
+        <v>0.8793809758520337</v>
       </c>
       <c r="H73" t="n">
         <v>0.89</v>
       </c>
       <c r="I73" t="n">
-        <v>0.9880687723739788</v>
+        <v>0.9880685121932963</v>
       </c>
       <c r="J73" t="n">
-        <v>3.880687723739788</v>
+        <v>3.880685121932963</v>
       </c>
     </row>
     <row r="74">
@@ -3241,22 +3241,22 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>413866034.4309704</v>
+        <v>413865678.2009704</v>
       </c>
       <c r="F74" t="n">
         <v>429985299.997163</v>
       </c>
       <c r="G74" t="n">
-        <v>0.8550224107626135</v>
+        <v>0.855021699859171</v>
       </c>
       <c r="H74" t="n">
         <v>0.89</v>
       </c>
       <c r="I74" t="n">
-        <v>0.9606993379355209</v>
+        <v>0.9606985391676078</v>
       </c>
       <c r="J74" t="n">
-        <v>3.606993379355209</v>
+        <v>3.606985391676078</v>
       </c>
     </row>
     <row r="75">
@@ -3279,22 +3279,22 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>306449645.5708712</v>
+        <v>306449430.8608713</v>
       </c>
       <c r="F75" t="n">
         <v>365716956.3413008</v>
       </c>
       <c r="G75" t="n">
-        <v>0.7544190031042336</v>
+        <v>0.7544184859547677</v>
       </c>
       <c r="H75" t="n">
         <v>0.89</v>
       </c>
       <c r="I75" t="n">
-        <v>0.8476618012407119</v>
+        <v>0.8476612201738962</v>
       </c>
       <c r="J75" t="n">
-        <v>2.476618012407119</v>
+        <v>2.476612201738962</v>
       </c>
     </row>
     <row r="76">
@@ -3355,22 +3355,22 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>195636520.9123031</v>
+        <v>195636031.6123032</v>
       </c>
       <c r="F77" t="n">
         <v>272697474.0172351</v>
       </c>
       <c r="G77" t="n">
-        <v>0.6558656980124427</v>
+        <v>0.6558641710889267</v>
       </c>
       <c r="H77" t="n">
         <v>0.89</v>
       </c>
       <c r="I77" t="n">
-        <v>0.7369277505757783</v>
+        <v>0.7369260349313783</v>
       </c>
       <c r="J77" t="n">
-        <v>1.369277505757783</v>
+        <v>1.369260349313783</v>
       </c>
     </row>
     <row r="78">
@@ -3393,19 +3393,19 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>139811021.4121972</v>
+        <v>139810865.4321972</v>
       </c>
       <c r="F78" t="n">
         <v>224270044.700023</v>
       </c>
       <c r="G78" t="n">
-        <v>0.5856529294332726</v>
+        <v>0.5856523355245246</v>
       </c>
       <c r="H78" t="n">
         <v>0.89</v>
       </c>
       <c r="I78" t="n">
-        <v>0.6580369993632277</v>
+        <v>0.6580363320500275</v>
       </c>
       <c r="J78" t="n">
         <v>1</v>
@@ -3431,7 +3431,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>616544184.9870119</v>
+        <v>616543205.9770119</v>
       </c>
       <c r="F79" t="n">
         <v>475548271.9510217</v>
@@ -3469,22 +3469,22 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>482691948.5262743</v>
+        <v>482690365.5262743</v>
       </c>
       <c r="F80" t="n">
         <v>411507129.048921</v>
       </c>
       <c r="G80" t="n">
-        <v>1.014516193022734</v>
+        <v>1.014512754998784</v>
       </c>
       <c r="H80" t="n">
         <v>0.89</v>
       </c>
       <c r="I80" t="n">
-        <v>1.139905834857004</v>
+        <v>1.139901971908746</v>
       </c>
       <c r="J80" t="n">
-        <v>4.699529174285019</v>
+        <v>4.699509859543728</v>
       </c>
     </row>
     <row r="81">
@@ -3507,22 +3507,22 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>235242181.036226</v>
+        <v>235241794.716226</v>
       </c>
       <c r="F81" t="n">
         <v>279233496.0050087</v>
       </c>
       <c r="G81" t="n">
-        <v>0.7572978861477608</v>
+        <v>0.7572965999281331</v>
       </c>
       <c r="H81" t="n">
         <v>0.89</v>
       </c>
       <c r="I81" t="n">
-        <v>0.8508965012896189</v>
+        <v>0.8508950560990259</v>
       </c>
       <c r="J81" t="n">
-        <v>2.508965012896189</v>
+        <v>2.508950560990259</v>
       </c>
     </row>
     <row r="82">
@@ -3545,22 +3545,22 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>263488766.4415204</v>
+        <v>263488341.6315204</v>
       </c>
       <c r="F82" t="n">
         <v>302198516.3863546</v>
       </c>
       <c r="G82" t="n">
-        <v>0.7769378232652494</v>
+        <v>0.7769366077208109</v>
       </c>
       <c r="H82" t="n">
         <v>0.89</v>
       </c>
       <c r="I82" t="n">
-        <v>0.8729638463654488</v>
+        <v>0.8729624805851808</v>
       </c>
       <c r="J82" t="n">
-        <v>2.729638463654487</v>
+        <v>2.729624805851807</v>
       </c>
     </row>
     <row r="83">
@@ -3583,22 +3583,22 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>169153480.7122642</v>
+        <v>169152981.7122642</v>
       </c>
       <c r="F83" t="n">
         <v>229743129.229374</v>
       </c>
       <c r="G83" t="n">
-        <v>0.6662415994633197</v>
+        <v>0.6662396895951556</v>
       </c>
       <c r="H83" t="n">
         <v>0.89</v>
       </c>
       <c r="I83" t="n">
-        <v>0.7485860668127188</v>
+        <v>0.7485839208934332</v>
       </c>
       <c r="J83" t="n">
-        <v>1.485860668127188</v>
+        <v>1.485839208934332</v>
       </c>
     </row>
     <row r="84">
@@ -3621,22 +3621,22 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>150442572.8711657</v>
+        <v>150442323.3711657</v>
       </c>
       <c r="F84" t="n">
         <v>222740188.4179527</v>
       </c>
       <c r="G84" t="n">
-        <v>0.6275632779218471</v>
+        <v>0.6275622830951576</v>
       </c>
       <c r="H84" t="n">
         <v>0.89</v>
       </c>
       <c r="I84" t="n">
-        <v>0.7051272785638731</v>
+        <v>0.7051261607810759</v>
       </c>
       <c r="J84" t="n">
-        <v>1.051272785638732</v>
+        <v>1.05126160781076</v>
       </c>
     </row>
     <row r="85">
@@ -3659,22 +3659,22 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>149799790.8272894</v>
+        <v>149799727.8272894</v>
       </c>
       <c r="F85" t="n">
         <v>218538001.4360375</v>
       </c>
       <c r="G85" t="n">
-        <v>0.6286816228136956</v>
+        <v>0.6286813715421697</v>
       </c>
       <c r="H85" t="n">
         <v>0.89</v>
       </c>
       <c r="I85" t="n">
-        <v>0.7063838458580849</v>
+        <v>0.7063835635305278</v>
       </c>
       <c r="J85" t="n">
-        <v>1.063838458580849</v>
+        <v>1.063835635305278</v>
       </c>
     </row>
     <row r="86">
@@ -3697,7 +3697,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>606968505.2762345</v>
+        <v>606968511.6962346</v>
       </c>
       <c r="F86" t="n">
         <v>475826624.6227343</v>
@@ -3773,7 +3773,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>430104074.6184903</v>
+        <v>430104008.9884903</v>
       </c>
       <c r="F88" t="n">
         <v>377671590.5524369</v>
@@ -3849,22 +3849,22 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>310062533.2687242</v>
+        <v>310062534.7687242</v>
       </c>
       <c r="F90" t="n">
         <v>297575439.6367589</v>
       </c>
       <c r="G90" t="n">
-        <v>0.9200319861951969</v>
+        <v>0.9200319905666994</v>
       </c>
       <c r="H90" t="n">
         <v>0.89</v>
       </c>
       <c r="I90" t="n">
-        <v>1.033743804713704</v>
+        <v>1.033743809625505</v>
       </c>
       <c r="J90" t="n">
-        <v>4.168719023568523</v>
+        <v>4.168719048127524</v>
       </c>
     </row>
     <row r="91">
@@ -3887,22 +3887,22 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>397198376.9915782</v>
+        <v>397197748.5915782</v>
       </c>
       <c r="F91" t="n">
         <v>317594615.4947228</v>
       </c>
       <c r="G91" t="n">
-        <v>0.8487027298976449</v>
+        <v>0.848700555762409</v>
       </c>
       <c r="H91" t="n">
         <v>0.89</v>
       </c>
       <c r="I91" t="n">
-        <v>0.9535985729187022</v>
+        <v>0.9535961300701224</v>
       </c>
       <c r="J91" t="n">
-        <v>3.535985729187022</v>
+        <v>3.535961300701224</v>
       </c>
     </row>
     <row r="92">
@@ -3925,22 +3925,22 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>425466900.0157691</v>
+        <v>425467441.4957691</v>
       </c>
       <c r="F92" t="n">
         <v>520368975.4629083</v>
       </c>
       <c r="G92" t="n">
-        <v>0.7358478798468473</v>
+        <v>0.7358488304047756</v>
       </c>
       <c r="H92" t="n">
         <v>0.89</v>
       </c>
       <c r="I92" t="n">
-        <v>0.8267953706144352</v>
+        <v>0.8267964386570512</v>
       </c>
       <c r="J92" t="n">
-        <v>2.267953706144352</v>
+        <v>2.267964386570512</v>
       </c>
     </row>
     <row r="93">
@@ -4001,22 +4001,22 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>239943926.6194933</v>
+        <v>239943327.1194933</v>
       </c>
       <c r="F94" t="n">
         <v>252326565.2367106</v>
       </c>
       <c r="G94" t="n">
-        <v>0.8482594948936539</v>
+        <v>0.8482574315698393</v>
       </c>
       <c r="H94" t="n">
         <v>0.89</v>
       </c>
       <c r="I94" t="n">
-        <v>0.9531005560602853</v>
+        <v>0.9530982377189205</v>
       </c>
       <c r="J94" t="n">
-        <v>3.531005560602853</v>
+        <v>3.530982377189205</v>
       </c>
     </row>
     <row r="95">
@@ -4039,22 +4039,22 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>407550218.3058953</v>
+        <v>407548630.8058953</v>
       </c>
       <c r="F95" t="n">
         <v>413039097.1499637</v>
       </c>
       <c r="G95" t="n">
-        <v>0.8755728469653554</v>
+        <v>0.8755692894102999</v>
       </c>
       <c r="H95" t="n">
         <v>0.89</v>
       </c>
       <c r="I95" t="n">
-        <v>0.9837897156914106</v>
+        <v>0.9837857184385391</v>
       </c>
       <c r="J95" t="n">
-        <v>3.837897156914106</v>
+        <v>3.837857184385391</v>
       </c>
     </row>
     <row r="96">
@@ -4077,22 +4077,22 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>460885666.0090705</v>
+        <v>460884228.0790704</v>
       </c>
       <c r="F96" t="n">
         <v>415524750.2465409</v>
       </c>
       <c r="G96" t="n">
-        <v>0.9781801187870905</v>
+        <v>0.9781772354320025</v>
       </c>
       <c r="H96" t="n">
         <v>0.89</v>
       </c>
       <c r="I96" t="n">
-        <v>1.099078785154034</v>
+        <v>1.099075545429216</v>
       </c>
       <c r="J96" t="n">
-        <v>4.495393925770172</v>
+        <v>4.495377727146082</v>
       </c>
     </row>
     <row r="97">
@@ -4115,22 +4115,22 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>237035647.3899256</v>
+        <v>237034058.6399256</v>
       </c>
       <c r="F97" t="n">
         <v>331347725.2812285</v>
       </c>
       <c r="G97" t="n">
-        <v>0.6481715838039702</v>
+        <v>0.6481675648168069</v>
       </c>
       <c r="H97" t="n">
         <v>0.89</v>
       </c>
       <c r="I97" t="n">
-        <v>0.7282826784314272</v>
+        <v>0.7282781627155134</v>
       </c>
       <c r="J97" t="n">
-        <v>1.282826784314273</v>
+        <v>1.282781627155134</v>
       </c>
     </row>
     <row r="98">
@@ -4153,22 +4153,22 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>303306708.7248724</v>
+        <v>303306490.4248724</v>
       </c>
       <c r="F98" t="n">
         <v>349416002.7196608</v>
       </c>
       <c r="G98" t="n">
-        <v>0.7760610336654624</v>
+        <v>0.7760605389146522</v>
       </c>
       <c r="H98" t="n">
         <v>0.89</v>
       </c>
       <c r="I98" t="n">
-        <v>0.8719786895117555</v>
+        <v>0.8719781336119687</v>
       </c>
       <c r="J98" t="n">
-        <v>2.719786895117555</v>
+        <v>2.719781336119687</v>
       </c>
     </row>
     <row r="99">
@@ -4191,7 +4191,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>771743807.9115711</v>
+        <v>771743609.8315712</v>
       </c>
       <c r="F99" t="n">
         <v>589023324.0671848</v>
@@ -4229,7 +4229,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>852233431.0468097</v>
+        <v>852230995.8668097</v>
       </c>
       <c r="F100" t="n">
         <v>512040390.1723127</v>
@@ -4267,22 +4267,22 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>424650230.5425873</v>
+        <v>424649691.5025873</v>
       </c>
       <c r="F101" t="n">
         <v>595462464.9329793</v>
       </c>
       <c r="G101" t="n">
-        <v>0.6556376863916479</v>
+        <v>0.6556369417445956</v>
       </c>
       <c r="H101" t="n">
         <v>0.89</v>
       </c>
       <c r="I101" t="n">
-        <v>0.7366715577434245</v>
+        <v>0.7366707210613433</v>
       </c>
       <c r="J101" t="n">
-        <v>1.366715577434245</v>
+        <v>1.366707210613434</v>
       </c>
     </row>
     <row r="102">
@@ -4343,7 +4343,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>568523391.8212006</v>
+        <v>568521474.8412006</v>
       </c>
       <c r="F103" t="n">
         <v>495525401.7010643</v>
@@ -4457,7 +4457,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>708561251.6465532</v>
+        <v>708560999.6865531</v>
       </c>
       <c r="F106" t="n">
         <v>466397783.2771004</v>
@@ -4533,19 +4533,19 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>102394419.9621863</v>
+        <v>102394269.9621863</v>
       </c>
       <c r="F108" t="n">
         <v>216228430.1849488</v>
       </c>
       <c r="G108" t="n">
-        <v>0.4649553266038238</v>
+        <v>0.4649547164597256</v>
       </c>
       <c r="H108" t="n">
         <v>0.89</v>
       </c>
       <c r="I108" t="n">
-        <v>0.5224217152851953</v>
+        <v>0.5224210297300288</v>
       </c>
       <c r="J108" t="n">
         <v>1</v>
@@ -4571,22 +4571,22 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>223602320.6692128</v>
+        <v>223601921.6692128</v>
       </c>
       <c r="F109" t="n">
         <v>281578782.5883358</v>
       </c>
       <c r="G109" t="n">
-        <v>0.716537477149102</v>
+        <v>0.7165362614841596</v>
       </c>
       <c r="H109" t="n">
         <v>0.89</v>
       </c>
       <c r="I109" t="n">
-        <v>0.8050982889315752</v>
+        <v>0.8050969230159096</v>
       </c>
       <c r="J109" t="n">
-        <v>2.050982889315752</v>
+        <v>2.050969230159096</v>
       </c>
     </row>
     <row r="110">
@@ -4609,7 +4609,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>871827613.0977852</v>
+        <v>871827226.7777853</v>
       </c>
       <c r="F110" t="n">
         <v>582608021.0688794</v>
@@ -4685,19 +4685,19 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>161068804.7445331</v>
+        <v>161068779.2445331</v>
       </c>
       <c r="F112" t="n">
         <v>263795744.1043205</v>
       </c>
       <c r="G112" t="n">
-        <v>0.5814262501028146</v>
+        <v>0.5814261674242934</v>
       </c>
       <c r="H112" t="n">
         <v>0.89</v>
       </c>
       <c r="I112" t="n">
-        <v>0.6532879214638366</v>
+        <v>0.6532878285666218</v>
       </c>
       <c r="J112" t="n">
         <v>1</v>
@@ -4723,19 +4723,19 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>136295749.4265231</v>
+        <v>136295507.7465231</v>
       </c>
       <c r="F113" t="n">
         <v>221425605.6026802</v>
       </c>
       <c r="G113" t="n">
-        <v>0.5671499509480973</v>
+        <v>0.5671489471171388</v>
       </c>
       <c r="H113" t="n">
         <v>0.89</v>
       </c>
       <c r="I113" t="n">
-        <v>0.6372471358967385</v>
+        <v>0.6372460079967852</v>
       </c>
       <c r="J113" t="n">
         <v>1</v>
